--- a/data/trans_dic/P22$concerIndv-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerIndv-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,33</t>
+          <t>0,16; 1,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,47</t>
+          <t>1,0; 3,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,99</t>
+          <t>0,78; 2,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,94</t>
+          <t>1,52; 3,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,32</t>
+          <t>0,49; 2,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,26</t>
+          <t>0,94; 3,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,66</t>
+          <t>0,82; 2,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,44</t>
+          <t>2,32; 4,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,63</t>
+          <t>0,45; 1,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,83</t>
+          <t>1,14; 2,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,35</t>
+          <t>0,99; 2,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 3,73</t>
+          <t>2,16; 3,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,58</t>
+          <t>0,97; 2,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,66</t>
+          <t>1,64; 3,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,42</t>
+          <t>2,01; 4,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,68</t>
+          <t>2,22; 6,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,11</t>
+          <t>1,89; 4,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,69</t>
+          <t>1,03; 2,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,96</t>
+          <t>3,38; 6,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,98</t>
+          <t>5,27; 7,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,03</t>
+          <t>1,68; 3,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,83</t>
+          <t>1,58; 2,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 4,75</t>
+          <t>2,93; 4,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,82</t>
+          <t>3,58; 6,7</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,41</t>
+          <t>2,93; 6,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,99</t>
+          <t>2,67; 6,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,0</t>
+          <t>1,62; 4,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 8,88</t>
+          <t>4,92; 8,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,53</t>
+          <t>3,82; 7,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,85</t>
+          <t>2,61; 5,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,09</t>
+          <t>2,46; 5,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 9,83</t>
+          <t>3,71; 9,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,1</t>
+          <t>3,66; 6,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,22</t>
+          <t>2,98; 5,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,05</t>
+          <t>2,31; 4,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,55</t>
+          <t>4,64; 8,48</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,04</t>
+          <t>3,43; 6,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,06</t>
+          <t>3,17; 5,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 7,28</t>
+          <t>4,45; 7,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 11,81</t>
+          <t>7,83; 11,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,43</t>
+          <t>4,45; 7,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,98</t>
+          <t>4,05; 7,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 8,84</t>
+          <t>5,58; 9,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,62; 14,23</t>
+          <t>9,69; 14,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 6,42</t>
+          <t>4,38; 6,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,04</t>
+          <t>4,03; 6,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 7,57</t>
+          <t>5,32; 7,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,44; 12,33</t>
+          <t>9,39; 12,34</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,4</t>
+          <t>2,31; 3,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,93</t>
+          <t>2,66; 3,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,99</t>
+          <t>2,75; 4,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,58; 6,99</t>
+          <t>4,66; 7,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 4,62</t>
+          <t>3,28; 4,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,01</t>
+          <t>2,71; 4,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,16</t>
+          <t>3,77; 5,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,38; 8,7</t>
+          <t>6,27; 8,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,85</t>
+          <t>2,9; 3,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,81</t>
+          <t>2,87; 3,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,45</t>
+          <t>3,48; 4,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 7,68</t>
+          <t>5,97; 7,6</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguro Médico concertado individualmente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3958</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13842</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10496</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16050</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7950</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12656</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10171</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21893</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11909</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26499</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>20668</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>37943</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1124; 10176</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7007; 24781</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5240; 20077</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9665; 25204</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3376; 16873</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6565; 23080</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5503; 18538</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15658; 30053</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6250; 21075</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16032; 39346</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13335; 31404</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28285; 49035</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15446</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25736</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30559</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>54853</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>27586</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17988</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45980</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>61797</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>43032</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>43725</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>76539</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>116651</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9290; 24938</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16682; 38959</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>20502; 44802</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26510; 81364</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18259; 40221</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10647; 27579</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>35187; 62534</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>50508; 76203</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>32482; 58368</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>32459; 59229</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>60354; 98473</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>77044; 144033</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28618</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30582</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19902</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>48154</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>36735</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>30946</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>28419</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>65913</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>65354</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>61528</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48321</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>114066</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19862; 42998</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20220; 46139</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12300; 30471</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34660; 61149</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26114; 50695</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20278; 45346</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19209; 39853</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34591; 92768</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>49835; 82422</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45711; 81491</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35610; 64445</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>76068; 138946</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>44060</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>42014</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>52982</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>88301</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>60506</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>57179</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>73184</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>132593</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>104566</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>99193</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>126166</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>220894</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>32210; 57688</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30021; 56482</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>41649; 69438</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>72560; 108771</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>46176; 77610</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>42604; 74507</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>58210; 94728</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>105872; 155520</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>86691; 124858</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>80489; 121169</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>105360; 149199</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>189662; 249197</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>92082</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>112174</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>113939</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>207358</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>132778</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>118770</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>157755</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>282196</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>224860</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>230944</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>271694</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>489554</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>75537; 111272</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>91137; 135348</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>93270; 138724</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>161243; 244335</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>110874; 157521</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>96570; 144198</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>133323; 185772</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>229379; 318533</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>193013; 253601</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>200265; 261234</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>241127; 308326</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>425087; 540954</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>